--- a/Dashboards-test/RIOT2.xlsx
+++ b/Dashboards-test/RIOT2.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$72</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$73</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$72</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$73</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$72</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$72</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$73</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$73</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -64,42 +64,54 @@
     <x:t>BlueLeaf</x:t>
   </x:si>
   <x:si>
+    <x:t>MAXIM Fr</x:t>
+  </x:si>
+  <x:si>
     <x:t>STHOP</x:t>
   </x:si>
   <x:si>
     <x:t>JustInfinite</x:t>
   </x:si>
   <x:si>
+    <x:t>flamer99</x:t>
+  </x:si>
+  <x:si>
     <x:t>xRIOTx</x:t>
   </x:si>
   <x:si>
+    <x:t>cr7123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pillow</x:t>
+  </x:si>
+  <x:si>
     <x:t>Space_Blood_</x:t>
   </x:si>
   <x:si>
-    <x:t>cr7123</x:t>
+    <x:t>Super Saiyan</x:t>
   </x:si>
   <x:si>
     <x:t>Blucky</x:t>
   </x:si>
   <x:si>
-    <x:t>pillow</x:t>
-  </x:si>
-  <x:si>
     <x:t>TheWolf</x:t>
   </x:si>
   <x:si>
-    <x:t>Super Saiyan</x:t>
-  </x:si>
-  <x:si>
     <x:t>Chill_Champ</x:t>
   </x:si>
   <x:si>
+    <x:t>Ireadu</x:t>
+  </x:si>
+  <x:si>
     <x:t>-548-</x:t>
   </x:si>
   <x:si>
     <x:t>ArizYT</x:t>
   </x:si>
   <x:si>
+    <x:t>BED</x:t>
+  </x:si>
+  <x:si>
     <x:t>krimzon</x:t>
   </x:si>
   <x:si>
@@ -112,9 +124,6 @@
     <x:t>udontknowme</x:t>
   </x:si>
   <x:si>
-    <x:t>Ireadu</x:t>
-  </x:si>
-  <x:si>
     <x:t>BF45TR 2021</x:t>
   </x:si>
   <x:si>
@@ -244,9 +253,6 @@
     <x:t>RyZeeeeee</x:t>
   </x:si>
   <x:si>
-    <x:t>BED</x:t>
-  </x:si>
-  <x:si>
     <x:t>KweyZiFishy</x:t>
   </x:si>
   <x:si>
@@ -265,18 +271,18 @@
     <x:t>Aragor</x:t>
   </x:si>
   <x:si>
-    <x:t>flamer99</x:t>
-  </x:si>
-  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>4,0 (72/18)</x:t>
+    <x:t>10,0 (20/2)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,1 (92/30)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,3 (7/3)</x:t>
   </x:si>
   <x:si>
@@ -286,43 +292,76 @@
     <x:t>0,9 (11/12)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,7 (20/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (606/261)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (89/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (90/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (26/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,5 (18/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (10/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (203/63)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (99/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (45/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (26/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (96/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (44/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (52/33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (42/22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (23/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (19/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (78/41)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (68/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (258/143)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (96/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (44/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (52/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (232/121)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,8 (96/52)</x:t>
   </x:si>
   <x:si>
     <x:t>2,0 (136/69)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (42/22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (23/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (19/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (78/41)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (10/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (68/35)</x:t>
+    <x:t>1,2 (26/22)</x:t>
   </x:si>
   <x:si>
     <x:t>1,7 (307/178)</x:t>
@@ -370,7 +409,7 @@
     <x:t>1,7 (34/20)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (1213/894)</x:t>
+    <x:t>1,3 (1458/1081)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (232/167)</x:t>
@@ -406,6 +445,9 @@
     <x:t>1,4 (87/61)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,3 (245/187)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,3 (8/6)</x:t>
   </x:si>
   <x:si>
@@ -421,6 +463,27 @@
     <x:t>1,4 (90/65)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,3 (57/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (37/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (20/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (146/119)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (34/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (57/51)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (55/38)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,1 (195/171)</x:t>
   </x:si>
   <x:si>
@@ -431,15 +494,6 @@
   </x:si>
   <x:si>
     <x:t>1,4 (70/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (91/81)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (34/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (57/51)</x:t>
   </x:si>
   <x:si>
     <x:t>0,9 (613/690)</x:t>
@@ -967,16 +1021,18 @@
       <x:c r="N2" s="16" t="s"/>
       <x:c r="O2" s="16" t="s"/>
       <x:c r="P2" s="16" t="s"/>
+      <x:c r="Q2" s="16" t="s"/>
+      <x:c r="R2" s="16" t="s"/>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>4644.96934895828</x:v>
+        <x:v>4663.5092366071</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>242001.310562498</x:v>
+        <x:v>251550.807687498</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
         <x:v>10938.2642916665</x:v>
@@ -1013,6 +1069,12 @@
       </x:c>
       <x:c r="P3" s="16" t="n">
         <x:v>3973.34529166663</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>9549.49712499999</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1020,28 +1082,52 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>2417.13232638887</x:v>
+        <x:v>3284.54195535714</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>68804.7103124997</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="s"/>
-      <x:c r="F4" s="16" t="s"/>
-      <x:c r="G4" s="16" t="s"/>
-      <x:c r="H4" s="16" t="s"/>
-      <x:c r="I4" s="16" t="s"/>
-      <x:c r="J4" s="16" t="s"/>
-      <x:c r="K4" s="16" t="s"/>
-      <x:c r="L4" s="16" t="s"/>
-      <x:c r="M4" s="16" t="s"/>
+        <x:v>658603.279270833</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="n">
+        <x:v>5876.22549999994</x:v>
+      </x:c>
+      <x:c r="G4" s="16" t="n">
+        <x:v>4296.04558333347</x:v>
+      </x:c>
+      <x:c r="H4" s="16" t="n">
+        <x:v>503.391583333374</x:v>
+      </x:c>
+      <x:c r="I4" s="16" t="n">
+        <x:v>2511.8361666667</x:v>
+      </x:c>
+      <x:c r="J4" s="16" t="n">
+        <x:v>133.11950000003</x:v>
+      </x:c>
+      <x:c r="K4" s="16" t="n">
+        <x:v>16447.7642083335</x:v>
+      </x:c>
+      <x:c r="L4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M4" s="16" t="n">
+        <x:v>3.86450000002515</x:v>
+      </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>11735.9361041664</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>3694.7271458333</x:v>
+        <x:v>3658.65066666668</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>3556.66983333332</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>816.753562499885</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1049,45 +1135,33 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>1270.98274305557</x:v>
+        <x:v>1680.29825416666</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>323733.174666667</x:v>
-      </x:c>
-      <x:c r="E5" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="16" t="n">
-        <x:v>353.323250000016</x:v>
-      </x:c>
-      <x:c r="G5" s="16" t="n">
-        <x:v>741.674499999965</x:v>
-      </x:c>
-      <x:c r="H5" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="16" t="n">
-        <x:v>5354.76641666668</x:v>
-      </x:c>
-      <x:c r="J5" s="16" t="n">
-        <x:v>7932.79150000005</x:v>
-      </x:c>
-      <x:c r="K5" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L5" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M5" s="16" t="n">
-        <x:v>20.2451666666893</x:v>
-      </x:c>
+        <x:v>69954.8046041663</x:v>
+      </x:c>
+      <x:c r="E5" s="16" t="s"/>
+      <x:c r="F5" s="16" t="s"/>
+      <x:c r="G5" s="16" t="s"/>
+      <x:c r="H5" s="16" t="s"/>
+      <x:c r="I5" s="16" t="s"/>
+      <x:c r="J5" s="16" t="s"/>
+      <x:c r="K5" s="16" t="s"/>
+      <x:c r="L5" s="16" t="s"/>
+      <x:c r="M5" s="16" t="s"/>
       <x:c r="N5" s="16" t="n">
-        <x:v>846.022250000096</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="16" t="n">
-        <x:v>2.96983333333628</x:v>
+        <x:v>3694.7271458333</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
+        <x:v>3556.66983333332</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>1150.09429166667</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1096,46 +1170,52 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>636.874319444439</x:v>
+        <x:v>1089.41377976192</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>60256.3410624998</x:v>
+        <x:v>323733.174666667</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>353.323250000016</x:v>
       </x:c>
       <x:c r="G6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>741.674499999965</x:v>
       </x:c>
       <x:c r="H6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>5354.76641666668</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>7932.79150000005</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="16" t="n">
-        <x:v>2432.81991666665</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>658.636250000003</x:v>
+        <x:v>20.2451666666893</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>13.3671666666633</x:v>
+        <x:v>846.022250000096</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>4536.45016666662</x:v>
+        <x:v>2.96983333333628</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>1.21833333333052</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1143,38 +1223,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>446.156852430589</x:v>
+        <x:v>605.80567083332</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>115943.600916667</x:v>
-      </x:c>
-      <x:c r="E7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="16" t="n">
-        <x:v>3335.1223750004</x:v>
-      </x:c>
-      <x:c r="H7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="16" t="n">
-        <x:v>2018.75985416667</x:v>
-      </x:c>
-      <x:c r="K7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>189650.200937501</x:v>
+      </x:c>
+      <x:c r="E7" s="16" t="s"/>
+      <x:c r="F7" s="16" t="s"/>
+      <x:c r="G7" s="16" t="s"/>
+      <x:c r="H7" s="16" t="s"/>
+      <x:c r="I7" s="16" t="s"/>
+      <x:c r="J7" s="16" t="s"/>
+      <x:c r="K7" s="16" t="s"/>
+      <x:c r="L7" s="16" t="s"/>
+      <x:c r="M7" s="16" t="s"/>
       <x:c r="N7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1183,6 +1245,12 @@
       </x:c>
       <x:c r="P7" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>2016.7488541666</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>1012.2795</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1190,22 +1258,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>421.325893939402</x:v>
+        <x:v>545.892273809519</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>157117.763583333</x:v>
+        <x:v>60256.3410624998</x:v>
       </x:c>
       <x:c r="E8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="16" t="n">
-        <x:v>1260.4996666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>1307.48100000006</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
         <x:v>0</x:v>
@@ -1217,43 +1285,55 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2432.81991666665</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>2066.60416666666</x:v>
+        <x:v>658.636250000003</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13.3671666666633</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P8" s="16" t="s"/>
+        <x:v>4536.45016666662</x:v>
+      </x:c>
+      <x:c r="P8" s="16" t="n">
+        <x:v>1.21833333333052</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
       <x:c r="B9" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>416.152762499999</x:v>
+        <x:v>421.325893939402</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>160568.817124999</x:v>
+        <x:v>157117.763583333</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="16" t="n">
-        <x:v>107.149083333323</x:v>
+        <x:v>1260.4996666667</x:v>
       </x:c>
       <x:c r="G9" s="16" t="n">
-        <x:v>463.27912500003</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="16" t="s"/>
-      <x:c r="J9" s="16" t="s"/>
+        <x:v>1307.48100000006</x:v>
+      </x:c>
+      <x:c r="I9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1261,27 +1341,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="16" t="n">
-        <x:v>1135.45787499996</x:v>
+        <x:v>2066.60416666666</x:v>
       </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>490.903333333321</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>851.018708333315</x:v>
-      </x:c>
-      <x:c r="P9" s="16" t="n">
-        <x:v>1113.71950000004</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>383.705704861114</x:v>
+        <x:v>386.797470238097</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>246718.727541666</x:v>
+        <x:v>247529.423666666</x:v>
       </x:c>
       <x:c r="E10" s="16" t="n">
         <x:v>4.28833333333023</x:v>
@@ -1317,6 +1397,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>810.696124999988</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1325,10 +1411,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>360.685302083342</x:v>
+        <x:v>382.420159226219</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>331119.090708334</x:v>
+        <x:v>115943.600916667</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
         <x:v>0</x:v>
@@ -1337,7 +1423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>3335.1223750004</x:v>
       </x:c>
       <x:c r="H11" s="16" t="n">
         <x:v>0</x:v>
@@ -1346,7 +1432,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2018.75985416667</x:v>
       </x:c>
       <x:c r="K11" s="16" t="n">
         <x:v>0</x:v>
@@ -1361,10 +1447,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O11" s="16" t="n">
-        <x:v>188.421166666725</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
-        <x:v>4139.80245833338</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1372,10 +1464,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>156.425635416667</x:v>
+        <x:v>380.532889880951</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>334220.297291667</x:v>
+        <x:v>337670.650125</x:v>
       </x:c>
       <x:c r="E12" s="16" t="n">
         <x:v>0</x:v>
@@ -1411,6 +1503,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>3450.35283333331</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1419,64 +1517,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>115.129532986112</x:v>
+        <x:v>346.889552083332</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>184004.9913125</x:v>
+        <x:v>160569.964124999</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>107.149083333323</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>463.27912500003</x:v>
       </x:c>
       <x:c r="H13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="I13" s="16" t="s"/>
+      <x:c r="J13" s="16" t="s"/>
       <x:c r="K13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L13" s="16" t="n">
-        <x:v>866.484187499998</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>515.070208333345</x:v>
+        <x:v>1135.45787499996</x:v>
       </x:c>
       <x:c r="N13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>490.903333333321</x:v>
       </x:c>
       <x:c r="O13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>851.018708333315</x:v>
       </x:c>
       <x:c r="P13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>1113.71950000004</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>1.14699999999721</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>46.9157666666666</x:v>
+        <x:v>309.15883035715</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>45619.2265833332</x:v>
+        <x:v>331119.090708334</x:v>
       </x:c>
       <x:c r="E14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="16" t="n">
-        <x:v>234.578833333333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="16" t="n">
         <x:v>0</x:v>
@@ -1487,33 +1587,53 @@
       <x:c r="I14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J14" s="16" t="s"/>
-      <x:c r="K14" s="16" t="s"/>
-      <x:c r="L14" s="16" t="s"/>
-      <x:c r="M14" s="16" t="s"/>
-      <x:c r="N14" s="16" t="s"/>
-      <x:c r="O14" s="16" t="s"/>
-      <x:c r="P14" s="16" t="s"/>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="J14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O14" s="16" t="n">
+        <x:v>188.421166666725</x:v>
+      </x:c>
+      <x:c r="P14" s="16" t="n">
+        <x:v>4139.80245833338</x:v>
+      </x:c>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>2.7732222222221</x:v>
+        <x:v>98.6824568452388</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>82663.8297083333</x:v>
+        <x:v>184004.9913125</x:v>
       </x:c>
       <x:c r="E15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="16" t="n">
-        <x:v>33.2786666666652</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="16" t="n">
         <x:v>0</x:v>
@@ -1531,10 +1651,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>866.484187499998</x:v>
       </x:c>
       <x:c r="M15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>515.070208333345</x:v>
       </x:c>
       <x:c r="N15" s="16" t="n">
         <x:v>0</x:v>
@@ -1543,6 +1663,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1551,39 +1677,79 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>47.1694404761906</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>161803.063</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
-      <x:c r="H16" s="16" t="s"/>
-      <x:c r="I16" s="16" t="s"/>
-      <x:c r="J16" s="16" t="s"/>
-      <x:c r="K16" s="16" t="s"/>
-      <x:c r="L16" s="16" t="s"/>
-      <x:c r="M16" s="16" t="s"/>
-      <x:c r="N16" s="16" t="s"/>
-      <x:c r="O16" s="16" t="s"/>
-      <x:c r="P16" s="16" t="s"/>
+        <x:v>54798.5797083333</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>660.372166666668</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>46.9157666666666</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>355111.254041666</x:v>
-      </x:c>
-      <x:c r="E17" s="16" t="s"/>
-      <x:c r="F17" s="16" t="s"/>
-      <x:c r="G17" s="16" t="s"/>
-      <x:c r="H17" s="16" t="s"/>
-      <x:c r="I17" s="16" t="s"/>
+        <x:v>45619.2265833332</x:v>
+      </x:c>
+      <x:c r="E17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F17" s="16" t="n">
+        <x:v>234.578833333333</x:v>
+      </x:c>
+      <x:c r="G17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J17" s="16" t="s"/>
       <x:c r="K17" s="16" t="s"/>
       <x:c r="L17" s="16" t="s"/>
@@ -1591,22 +1757,24 @@
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>2.37704761904751</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>171848.827708333</x:v>
+        <x:v>82663.8297083333</x:v>
       </x:c>
       <x:c r="E18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>33.2786666666652</x:v>
       </x:c>
       <x:c r="G18" s="16" t="n">
         <x:v>0</x:v>
@@ -1636,6 +1804,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1644,23 +1818,53 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>1.04657142857156</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>16373.1940833333</x:v>
-      </x:c>
-      <x:c r="E19" s="16" t="s"/>
-      <x:c r="F19" s="16" t="s"/>
-      <x:c r="G19" s="16" t="s"/>
-      <x:c r="H19" s="16" t="s"/>
-      <x:c r="I19" s="16" t="s"/>
-      <x:c r="J19" s="16" t="s"/>
-      <x:c r="K19" s="16" t="s"/>
-      <x:c r="L19" s="16" t="s"/>
-      <x:c r="M19" s="16" t="s"/>
-      <x:c r="N19" s="16" t="s"/>
-      <x:c r="O19" s="16" t="s"/>
-      <x:c r="P19" s="16" t="s"/>
+        <x:v>140572.714666667</x:v>
+      </x:c>
+      <x:c r="E19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>14.6520000000019</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
@@ -1670,44 +1874,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>54138.2075416667</x:v>
-      </x:c>
-      <x:c r="E20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>161803.063</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="s"/>
+      <x:c r="F20" s="16" t="s"/>
+      <x:c r="G20" s="16" t="s"/>
+      <x:c r="H20" s="16" t="s"/>
+      <x:c r="I20" s="16" t="s"/>
+      <x:c r="J20" s="16" t="s"/>
+      <x:c r="K20" s="16" t="s"/>
+      <x:c r="L20" s="16" t="s"/>
+      <x:c r="M20" s="16" t="s"/>
+      <x:c r="N20" s="16" t="s"/>
+      <x:c r="O20" s="16" t="s"/>
+      <x:c r="P20" s="16" t="s"/>
+      <x:c r="Q20" s="16" t="s"/>
+      <x:c r="R20" s="16" t="s"/>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1717,7 +1899,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>75865.46975</x:v>
+        <x:v>355111.254041666</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -1731,6 +1913,8 @@
       <x:c r="N21" s="16" t="s"/>
       <x:c r="O21" s="16" t="s"/>
       <x:c r="P21" s="16" t="s"/>
+      <x:c r="Q21" s="16" t="s"/>
+      <x:c r="R21" s="16" t="s"/>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
@@ -1740,20 +1924,50 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>351251.038124999</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="s"/>
-      <x:c r="F22" s="16" t="s"/>
-      <x:c r="G22" s="16" t="s"/>
-      <x:c r="H22" s="16" t="s"/>
-      <x:c r="I22" s="16" t="s"/>
-      <x:c r="J22" s="16" t="s"/>
-      <x:c r="K22" s="16" t="s"/>
-      <x:c r="L22" s="16" t="s"/>
-      <x:c r="M22" s="16" t="s"/>
-      <x:c r="N22" s="16" t="s"/>
-      <x:c r="O22" s="16" t="s"/>
-      <x:c r="P22" s="16" t="s"/>
+        <x:v>171848.827708333</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
@@ -1763,44 +1977,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>324389.607916667</x:v>
-      </x:c>
-      <x:c r="E23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>16373.1940833333</x:v>
+      </x:c>
+      <x:c r="E23" s="16" t="s"/>
+      <x:c r="F23" s="16" t="s"/>
+      <x:c r="G23" s="16" t="s"/>
+      <x:c r="H23" s="16" t="s"/>
+      <x:c r="I23" s="16" t="s"/>
+      <x:c r="J23" s="16" t="s"/>
+      <x:c r="K23" s="16" t="s"/>
+      <x:c r="L23" s="16" t="s"/>
+      <x:c r="M23" s="16" t="s"/>
+      <x:c r="N23" s="16" t="s"/>
+      <x:c r="O23" s="16" t="s"/>
+      <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
@@ -1810,7 +2002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>9844.54933333334</x:v>
+        <x:v>75865.46975</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s"/>
       <x:c r="F24" s="16" t="s"/>
@@ -1824,6 +2016,8 @@
       <x:c r="N24" s="16" t="s"/>
       <x:c r="O24" s="16" t="s"/>
       <x:c r="P24" s="16" t="s"/>
+      <x:c r="Q24" s="16" t="s"/>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
@@ -1833,7 +2027,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>21646.0760833333</x:v>
+        <x:v>351251.038124999</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
       <x:c r="F25" s="16" t="s"/>
@@ -1847,6 +2041,8 @@
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
@@ -1856,20 +2052,50 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>3669.73483333333</x:v>
-      </x:c>
-      <x:c r="E26" s="16" t="s"/>
-      <x:c r="F26" s="16" t="s"/>
-      <x:c r="G26" s="16" t="s"/>
-      <x:c r="H26" s="16" t="s"/>
-      <x:c r="I26" s="16" t="s"/>
-      <x:c r="J26" s="16" t="s"/>
-      <x:c r="K26" s="16" t="s"/>
-      <x:c r="L26" s="16" t="s"/>
-      <x:c r="M26" s="16" t="s"/>
-      <x:c r="N26" s="16" t="s"/>
-      <x:c r="O26" s="16" t="s"/>
-      <x:c r="P26" s="16" t="s"/>
+        <x:v>324389.607916667</x:v>
+      </x:c>
+      <x:c r="E26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -1879,7 +2105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>8789.05983333334</x:v>
+        <x:v>9844.54933333334</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -1893,6 +2119,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -1902,7 +2130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>44892.1931666667</x:v>
+        <x:v>21646.0760833333</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -1916,6 +2144,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -1925,7 +2155,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>1136.92091666667</x:v>
+        <x:v>3669.73483333333</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -1939,6 +2169,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -1948,7 +2180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>227571.251125</x:v>
+        <x:v>8789.05983333334</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
@@ -1962,6 +2194,8 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -1971,7 +2205,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>3288.492125</x:v>
+        <x:v>44892.1931666667</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -1985,6 +2219,8 @@
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -1994,7 +2230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>17067.4041666667</x:v>
+        <x:v>1136.92091666667</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2008,6 +2244,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -2017,7 +2255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>22756.9674166667</x:v>
+        <x:v>227571.251125</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2031,6 +2269,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2040,7 +2280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>8026.74466666667</x:v>
+        <x:v>3288.492125</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2054,6 +2294,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2063,7 +2305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>4760.960375</x:v>
+        <x:v>17067.4041666667</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2077,6 +2319,8 @@
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
       <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2086,7 +2330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>1188.29854166667</x:v>
+        <x:v>22756.9674166667</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2100,6 +2344,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2109,7 +2355,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>17124.342875</x:v>
+        <x:v>8026.74466666667</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2123,6 +2369,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2132,7 +2380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>75547.2132916667</x:v>
+        <x:v>4760.960375</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2146,6 +2394,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2155,7 +2405,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>16401.49025</x:v>
+        <x:v>1188.29854166667</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2169,6 +2419,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2178,7 +2430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>5458.42258333333</x:v>
+        <x:v>17124.342875</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2192,6 +2444,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2201,7 +2455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>7867.33083333333</x:v>
+        <x:v>75547.2132916667</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -2215,6 +2469,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2224,7 +2480,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>8990.11916666667</x:v>
+        <x:v>16401.49025</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2238,6 +2494,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2247,7 +2505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>19436.4165833333</x:v>
+        <x:v>5458.42258333333</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -2261,6 +2519,8 @@
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
       <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2270,7 +2530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>12167.4775416667</x:v>
+        <x:v>7867.33083333333</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -2284,6 +2544,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -2293,7 +2555,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>14980.625125</x:v>
+        <x:v>8990.11916666667</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
@@ -2307,6 +2569,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -2316,7 +2580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>48752.9045</x:v>
+        <x:v>19436.4165833333</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
@@ -2330,6 +2594,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -2339,7 +2605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>16257.2759166667</x:v>
+        <x:v>12167.4775416667</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
@@ -2353,6 +2619,8 @@
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -2362,7 +2630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>2357.927</x:v>
+        <x:v>14980.625125</x:v>
       </x:c>
       <x:c r="E48" s="16" t="s"/>
       <x:c r="F48" s="16" t="s"/>
@@ -2376,6 +2644,8 @@
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -2385,7 +2655,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="15" t="n">
-        <x:v>52743.135</x:v>
+        <x:v>48752.9045</x:v>
       </x:c>
       <x:c r="E49" s="16" t="s"/>
       <x:c r="F49" s="16" t="s"/>
@@ -2399,6 +2669,8 @@
       <x:c r="N49" s="16" t="s"/>
       <x:c r="O49" s="16" t="s"/>
       <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -2408,7 +2680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="15" t="n">
-        <x:v>124631.443125</x:v>
+        <x:v>16257.2759166667</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s"/>
       <x:c r="F50" s="16" t="s"/>
@@ -2422,6 +2694,8 @@
       <x:c r="N50" s="16" t="s"/>
       <x:c r="O50" s="16" t="s"/>
       <x:c r="P50" s="16" t="s"/>
+      <x:c r="Q50" s="16" t="s"/>
+      <x:c r="R50" s="16" t="s"/>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -2431,7 +2705,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="15" t="n">
-        <x:v>23089.8995</x:v>
+        <x:v>2357.927</x:v>
       </x:c>
       <x:c r="E51" s="16" t="s"/>
       <x:c r="F51" s="16" t="s"/>
@@ -2445,6 +2719,8 @@
       <x:c r="N51" s="16" t="s"/>
       <x:c r="O51" s="16" t="s"/>
       <x:c r="P51" s="16" t="s"/>
+      <x:c r="Q51" s="16" t="s"/>
+      <x:c r="R51" s="16" t="s"/>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -2454,7 +2730,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="15" t="n">
-        <x:v>19703.3021666667</x:v>
+        <x:v>52743.135</x:v>
       </x:c>
       <x:c r="E52" s="16" t="s"/>
       <x:c r="F52" s="16" t="s"/>
@@ -2468,6 +2744,8 @@
       <x:c r="N52" s="16" t="s"/>
       <x:c r="O52" s="16" t="s"/>
       <x:c r="P52" s="16" t="s"/>
+      <x:c r="Q52" s="16" t="s"/>
+      <x:c r="R52" s="16" t="s"/>
     </x:row>
     <x:row r="53" spans="1:146">
       <x:c r="B53" s="14" t="s">
@@ -2477,7 +2755,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="15" t="n">
-        <x:v>9541.56079166667</x:v>
+        <x:v>124631.443125</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s"/>
       <x:c r="F53" s="16" t="s"/>
@@ -2491,6 +2769,8 @@
       <x:c r="N53" s="16" t="s"/>
       <x:c r="O53" s="16" t="s"/>
       <x:c r="P53" s="16" t="s"/>
+      <x:c r="Q53" s="16" t="s"/>
+      <x:c r="R53" s="16" t="s"/>
     </x:row>
     <x:row r="54" spans="1:146">
       <x:c r="B54" s="14" t="s">
@@ -2500,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="15" t="n">
-        <x:v>218021.761</x:v>
+        <x:v>23089.8995</x:v>
       </x:c>
       <x:c r="E54" s="16" t="s"/>
       <x:c r="F54" s="16" t="s"/>
@@ -2514,6 +2794,8 @@
       <x:c r="N54" s="16" t="s"/>
       <x:c r="O54" s="16" t="s"/>
       <x:c r="P54" s="16" t="s"/>
+      <x:c r="Q54" s="16" t="s"/>
+      <x:c r="R54" s="16" t="s"/>
     </x:row>
     <x:row r="55" spans="1:146">
       <x:c r="B55" s="14" t="s">
@@ -2523,7 +2805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="15" t="n">
-        <x:v>14369.5974583333</x:v>
+        <x:v>19703.3021666667</x:v>
       </x:c>
       <x:c r="E55" s="16" t="s"/>
       <x:c r="F55" s="16" t="s"/>
@@ -2537,6 +2819,8 @@
       <x:c r="N55" s="16" t="s"/>
       <x:c r="O55" s="16" t="s"/>
       <x:c r="P55" s="16" t="s"/>
+      <x:c r="Q55" s="16" t="s"/>
+      <x:c r="R55" s="16" t="s"/>
     </x:row>
     <x:row r="56" spans="1:146">
       <x:c r="B56" s="14" t="s">
@@ -2546,7 +2830,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="15" t="n">
-        <x:v>169341.718895833</x:v>
+        <x:v>9541.56079166667</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s"/>
       <x:c r="F56" s="16" t="s"/>
@@ -2560,6 +2844,8 @@
       <x:c r="N56" s="16" t="s"/>
       <x:c r="O56" s="16" t="s"/>
       <x:c r="P56" s="16" t="s"/>
+      <x:c r="Q56" s="16" t="s"/>
+      <x:c r="R56" s="16" t="s"/>
     </x:row>
     <x:row r="57" spans="1:146">
       <x:c r="B57" s="14" t="s">
@@ -2569,7 +2855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="15" t="n">
-        <x:v>1310.2215</x:v>
+        <x:v>218021.761</x:v>
       </x:c>
       <x:c r="E57" s="16" t="s"/>
       <x:c r="F57" s="16" t="s"/>
@@ -2583,6 +2869,8 @@
       <x:c r="N57" s="16" t="s"/>
       <x:c r="O57" s="16" t="s"/>
       <x:c r="P57" s="16" t="s"/>
+      <x:c r="Q57" s="16" t="s"/>
+      <x:c r="R57" s="16" t="s"/>
     </x:row>
     <x:row r="58" spans="1:146">
       <x:c r="B58" s="14" t="s">
@@ -2592,7 +2880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="15" t="n">
-        <x:v>8073.80008333334</x:v>
+        <x:v>14369.5974583333</x:v>
       </x:c>
       <x:c r="E58" s="16" t="s"/>
       <x:c r="F58" s="16" t="s"/>
@@ -2606,6 +2894,8 @@
       <x:c r="N58" s="16" t="s"/>
       <x:c r="O58" s="16" t="s"/>
       <x:c r="P58" s="16" t="s"/>
+      <x:c r="Q58" s="16" t="s"/>
+      <x:c r="R58" s="16" t="s"/>
     </x:row>
     <x:row r="59" spans="1:146">
       <x:c r="B59" s="14" t="s">
@@ -2615,7 +2905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D59" s="15" t="n">
-        <x:v>9804.63325</x:v>
+        <x:v>169341.718895833</x:v>
       </x:c>
       <x:c r="E59" s="16" t="s"/>
       <x:c r="F59" s="16" t="s"/>
@@ -2629,6 +2919,8 @@
       <x:c r="N59" s="16" t="s"/>
       <x:c r="O59" s="16" t="s"/>
       <x:c r="P59" s="16" t="s"/>
+      <x:c r="Q59" s="16" t="s"/>
+      <x:c r="R59" s="16" t="s"/>
     </x:row>
     <x:row r="60" spans="1:146">
       <x:c r="B60" s="14" t="s">
@@ -2638,7 +2930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="15" t="n">
-        <x:v>35416.2052916666</x:v>
+        <x:v>1310.2215</x:v>
       </x:c>
       <x:c r="E60" s="16" t="s"/>
       <x:c r="F60" s="16" t="s"/>
@@ -2652,6 +2944,8 @@
       <x:c r="N60" s="16" t="s"/>
       <x:c r="O60" s="16" t="s"/>
       <x:c r="P60" s="16" t="s"/>
+      <x:c r="Q60" s="16" t="s"/>
+      <x:c r="R60" s="16" t="s"/>
     </x:row>
     <x:row r="61" spans="1:146">
       <x:c r="B61" s="14" t="s">
@@ -2661,7 +2955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="15" t="n">
-        <x:v>12640.2969166667</x:v>
+        <x:v>8073.80008333334</x:v>
       </x:c>
       <x:c r="E61" s="16" t="s"/>
       <x:c r="F61" s="16" t="s"/>
@@ -2675,6 +2969,8 @@
       <x:c r="N61" s="16" t="s"/>
       <x:c r="O61" s="16" t="s"/>
       <x:c r="P61" s="16" t="s"/>
+      <x:c r="Q61" s="16" t="s"/>
+      <x:c r="R61" s="16" t="s"/>
     </x:row>
     <x:row r="62" spans="1:146">
       <x:c r="B62" s="14" t="s">
@@ -2684,7 +2980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="15" t="n">
-        <x:v>128017.100333333</x:v>
+        <x:v>9804.63325</x:v>
       </x:c>
       <x:c r="E62" s="16" t="s"/>
       <x:c r="F62" s="16" t="s"/>
@@ -2698,6 +2994,8 @@
       <x:c r="N62" s="16" t="s"/>
       <x:c r="O62" s="16" t="s"/>
       <x:c r="P62" s="16" t="s"/>
+      <x:c r="Q62" s="16" t="s"/>
+      <x:c r="R62" s="16" t="s"/>
     </x:row>
     <x:row r="63" spans="1:146">
       <x:c r="B63" s="14" t="s">
@@ -2707,7 +3005,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D63" s="15" t="n">
-        <x:v>7289.36116666667</x:v>
+        <x:v>35416.2052916666</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s"/>
       <x:c r="F63" s="16" t="s"/>
@@ -2721,6 +3019,8 @@
       <x:c r="N63" s="16" t="s"/>
       <x:c r="O63" s="16" t="s"/>
       <x:c r="P63" s="16" t="s"/>
+      <x:c r="Q63" s="16" t="s"/>
+      <x:c r="R63" s="16" t="s"/>
     </x:row>
     <x:row r="64" spans="1:146">
       <x:c r="B64" s="14" t="s">
@@ -2730,44 +3030,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="15" t="n">
-        <x:v>140558.062666667</x:v>
-      </x:c>
-      <x:c r="E64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P64" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>12640.2969166667</x:v>
+      </x:c>
+      <x:c r="E64" s="16" t="s"/>
+      <x:c r="F64" s="16" t="s"/>
+      <x:c r="G64" s="16" t="s"/>
+      <x:c r="H64" s="16" t="s"/>
+      <x:c r="I64" s="16" t="s"/>
+      <x:c r="J64" s="16" t="s"/>
+      <x:c r="K64" s="16" t="s"/>
+      <x:c r="L64" s="16" t="s"/>
+      <x:c r="M64" s="16" t="s"/>
+      <x:c r="N64" s="16" t="s"/>
+      <x:c r="O64" s="16" t="s"/>
+      <x:c r="P64" s="16" t="s"/>
+      <x:c r="Q64" s="16" t="s"/>
+      <x:c r="R64" s="16" t="s"/>
     </x:row>
     <x:row r="65" spans="1:146">
       <x:c r="B65" s="14" t="s">
@@ -2777,7 +3055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="15" t="n">
-        <x:v>4725.777</x:v>
+        <x:v>128017.100333333</x:v>
       </x:c>
       <x:c r="E65" s="16" t="s"/>
       <x:c r="F65" s="16" t="s"/>
@@ -2791,6 +3069,8 @@
       <x:c r="N65" s="16" t="s"/>
       <x:c r="O65" s="16" t="s"/>
       <x:c r="P65" s="16" t="s"/>
+      <x:c r="Q65" s="16" t="s"/>
+      <x:c r="R65" s="16" t="s"/>
     </x:row>
     <x:row r="66" spans="1:146">
       <x:c r="B66" s="14" t="s">
@@ -2800,7 +3080,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="15" t="n">
-        <x:v>129098.534708332</x:v>
+        <x:v>7289.36116666667</x:v>
       </x:c>
       <x:c r="E66" s="16" t="s"/>
       <x:c r="F66" s="16" t="s"/>
@@ -2814,6 +3094,8 @@
       <x:c r="N66" s="16" t="s"/>
       <x:c r="O66" s="16" t="s"/>
       <x:c r="P66" s="16" t="s"/>
+      <x:c r="Q66" s="16" t="s"/>
+      <x:c r="R66" s="16" t="s"/>
     </x:row>
     <x:row r="67" spans="1:146">
       <x:c r="B67" s="14" t="s">
@@ -2823,7 +3105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="15" t="n">
-        <x:v>23623.6579166667</x:v>
+        <x:v>4725.777</x:v>
       </x:c>
       <x:c r="E67" s="16" t="s"/>
       <x:c r="F67" s="16" t="s"/>
@@ -2837,6 +3119,8 @@
       <x:c r="N67" s="16" t="s"/>
       <x:c r="O67" s="16" t="s"/>
       <x:c r="P67" s="16" t="s"/>
+      <x:c r="Q67" s="16" t="s"/>
+      <x:c r="R67" s="16" t="s"/>
     </x:row>
     <x:row r="68" spans="1:146">
       <x:c r="B68" s="14" t="s">
@@ -2846,7 +3130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="15" t="n">
-        <x:v>32314.4862083333</x:v>
+        <x:v>129098.534708332</x:v>
       </x:c>
       <x:c r="E68" s="16" t="s"/>
       <x:c r="F68" s="16" t="s"/>
@@ -2860,6 +3144,8 @@
       <x:c r="N68" s="16" t="s"/>
       <x:c r="O68" s="16" t="s"/>
       <x:c r="P68" s="16" t="s"/>
+      <x:c r="Q68" s="16" t="s"/>
+      <x:c r="R68" s="16" t="s"/>
     </x:row>
     <x:row r="69" spans="1:146">
       <x:c r="B69" s="14" t="s">
@@ -2869,44 +3155,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="15" t="n">
-        <x:v>76662.3106249995</x:v>
-      </x:c>
-      <x:c r="E69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P69" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>23623.6579166667</x:v>
+      </x:c>
+      <x:c r="E69" s="16" t="s"/>
+      <x:c r="F69" s="16" t="s"/>
+      <x:c r="G69" s="16" t="s"/>
+      <x:c r="H69" s="16" t="s"/>
+      <x:c r="I69" s="16" t="s"/>
+      <x:c r="J69" s="16" t="s"/>
+      <x:c r="K69" s="16" t="s"/>
+      <x:c r="L69" s="16" t="s"/>
+      <x:c r="M69" s="16" t="s"/>
+      <x:c r="N69" s="16" t="s"/>
+      <x:c r="O69" s="16" t="s"/>
+      <x:c r="P69" s="16" t="s"/>
+      <x:c r="Q69" s="16" t="s"/>
+      <x:c r="R69" s="16" t="s"/>
     </x:row>
     <x:row r="70" spans="1:146">
       <x:c r="B70" s="14" t="s">
@@ -2916,44 +3180,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="15" t="n">
-        <x:v>21558.3002708332</x:v>
-      </x:c>
-      <x:c r="E70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>32314.4862083333</x:v>
+      </x:c>
+      <x:c r="E70" s="16" t="s"/>
+      <x:c r="F70" s="16" t="s"/>
+      <x:c r="G70" s="16" t="s"/>
+      <x:c r="H70" s="16" t="s"/>
+      <x:c r="I70" s="16" t="s"/>
+      <x:c r="J70" s="16" t="s"/>
+      <x:c r="K70" s="16" t="s"/>
+      <x:c r="L70" s="16" t="s"/>
+      <x:c r="M70" s="16" t="s"/>
+      <x:c r="N70" s="16" t="s"/>
+      <x:c r="O70" s="16" t="s"/>
+      <x:c r="P70" s="16" t="s"/>
+      <x:c r="Q70" s="16" t="s"/>
+      <x:c r="R70" s="16" t="s"/>
     </x:row>
     <x:row r="71" spans="1:146">
       <x:c r="B71" s="14" t="s">
@@ -2963,17 +3205,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D71" s="15" t="n">
-        <x:v>186621.172583334</x:v>
-      </x:c>
-      <x:c r="E71" s="16" t="s"/>
-      <x:c r="F71" s="16" t="s"/>
-      <x:c r="G71" s="16" t="s"/>
-      <x:c r="H71" s="16" t="s"/>
-      <x:c r="I71" s="16" t="s"/>
-      <x:c r="J71" s="16" t="s"/>
-      <x:c r="K71" s="16" t="s"/>
-      <x:c r="L71" s="16" t="s"/>
-      <x:c r="M71" s="16" t="s"/>
+        <x:v>76662.3106249995</x:v>
+      </x:c>
+      <x:c r="E71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="N71" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -2981,6 +3241,65 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:146">
+      <x:c r="B72" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C72" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D72" s="15" t="n">
+        <x:v>21558.3002708332</x:v>
+      </x:c>
+      <x:c r="E72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R72" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3002,21 +3321,22 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C84" sqref="C84"/>
+      <x:selection activeCell="C85" sqref="C85"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="24.410625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.980625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="7" width="15.980625" style="0" customWidth="1"/>
     <x:col min="8" max="9" width="14.700625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="15.980625" style="0" customWidth="1"/>
     <x:col min="11" max="13" width="13.270625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="15.980625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="14.700625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3025,7 +3345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -3072,102 +3392,102 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="M2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="O2" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P2" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E2" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I2" s="19" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="J2" s="19" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="L2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="M2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="N2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="O2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="P2" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I3" s="19" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="J3" s="19" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
+      <x:c r="K3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="M3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="O3" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P3" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="G3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I3" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="K3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="O3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="P3" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -3175,799 +3495,799 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E4" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O7" s="19" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="O7" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="J8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="K8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="L8" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M8" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N8" s="19" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="G8" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H8" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I8" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="s">
+      <x:c r="O8" s="19" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="M8" s="19" t="s">
+      <x:c r="P8" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="N8" s="19" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="O8" s="19" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="P8" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D9" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E9" s="19" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F9" s="19" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D9" s="19" t="s">
+      <x:c r="G9" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H9" s="19" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="E9" s="19" t="s">
+      <x:c r="I9" s="19" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="F9" s="19" t="s">
+      <x:c r="J9" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K9" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L9" s="19" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="G9" s="19" t="s">
+      <x:c r="M9" s="19" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="H9" s="19" t="s">
+      <x:c r="N9" s="19" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="I9" s="19" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="J9" s="19" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="K9" s="19" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="L9" s="19" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="M9" s="19" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="N9" s="19" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D10" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E10" s="19" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F10" s="19" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G10" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H10" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I10" s="19" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="J10" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K10" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L10" s="19" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M10" s="19" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="N10" s="19" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="O10" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E10" s="19" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F10" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G10" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H10" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="J10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="K10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="L10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="M10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="N10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="O10" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>128</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
@@ -3975,49 +4295,49 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -4025,49 +4345,49 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
@@ -4075,99 +4395,99 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>137</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -4175,49 +4495,49 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
@@ -4225,99 +4545,99 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
       <x:c r="B26" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -4325,49 +4645,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -4375,49 +4695,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -4425,49 +4745,49 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -4475,49 +4795,49 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -4525,49 +4845,49 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4575,49 +4895,49 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4625,49 +4945,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4675,49 +4995,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -4725,49 +5045,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -4775,49 +5095,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -4825,49 +5145,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -4875,49 +5195,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -4925,49 +5245,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -4975,49 +5295,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5025,49 +5345,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5075,49 +5395,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5125,49 +5445,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5175,49 +5495,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5225,49 +5545,49 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5275,49 +5595,49 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5325,49 +5645,49 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -5375,49 +5695,49 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -5425,49 +5745,49 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -5475,49 +5795,49 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C50" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -5525,49 +5845,49 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C51" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -5575,49 +5895,49 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -5625,49 +5945,49 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -5675,49 +5995,49 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -5725,49 +6045,49 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -5775,49 +6095,49 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -5825,49 +6145,49 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -5875,49 +6195,49 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -5925,49 +6245,49 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -5975,49 +6295,49 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -6025,49 +6345,49 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -6075,49 +6395,49 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C62" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -6125,49 +6445,49 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C63" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -6175,49 +6495,49 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C64" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -6225,49 +6545,49 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C65" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -6275,49 +6595,49 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C66" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -6325,49 +6645,49 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -6375,49 +6695,49 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C68" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:36">
@@ -6425,49 +6745,49 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C69" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O69" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:36">
@@ -6475,49 +6795,49 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C70" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O70" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:36">
@@ -6525,49 +6845,99 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C71" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M71" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N71" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O71" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:36">
+      <x:c r="B72" s="14" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C72" s="18" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="M72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="O72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P72" s="19" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="Q72" s="19" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
